--- a/F2301_AE_Test_Scripts.xlsx
+++ b/F2301_AE_Test_Scripts.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jansr\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jansr\Downloads\Selenium-TestNG-Java\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{655EAAC8-EE36-45B0-86FD-2007153DEAB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A862FDC-2A9C-4D44-BB11-0F9EC314CF84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{5BD99FBC-03A8-47BC-B116-E2EA8ADB8ED3}"/>
   </bookViews>
@@ -560,7 +560,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -571,7 +571,7 @@
   <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -619,7 +619,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="61" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:10" ht="29.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
         <v>13</v>
       </c>
